--- a/presentasi/src/Copernicus Burn Down Chart.xlsx
+++ b/presentasi/src/Copernicus Burn Down Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Data\KULIAH\SEMESTER 4\Teknik Kolaborasi Pengembangan Perangkat Lunak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Night Angel\Desktop\New Copernicus\presentasi\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Story</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>Progress Table</t>
+  </si>
+  <si>
+    <t>Story 1</t>
+  </si>
+  <si>
+    <t>Task 1.1</t>
+  </si>
+  <si>
+    <t>Task 1.2</t>
+  </si>
+  <si>
+    <t>Task 1.3</t>
+  </si>
+  <si>
+    <t>Task 1.4</t>
+  </si>
+  <si>
+    <t>Task 1.5</t>
+  </si>
+  <si>
+    <t>Story 2</t>
+  </si>
+  <si>
+    <t>Task 2.1</t>
   </si>
 </sst>
 </file>
@@ -245,6 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -256,15 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,6 +607,15 @@
                 <c:pt idx="0">
                   <c:v>44</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -599,11 +632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1868506448"/>
-        <c:axId val="1868508624"/>
+        <c:axId val="-27842720"/>
+        <c:axId val="-27841632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1868506448"/>
+        <c:axId val="-27842720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1868508624"/>
+        <c:crossAx val="-27841632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -653,7 +686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1868508624"/>
+        <c:axId val="-27841632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1868506448"/>
+        <c:crossAx val="-27842720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,41 +1773,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
@@ -1827,17 +1860,27 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1849,17 +1892,27 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1871,17 +1924,27 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1893,17 +1956,27 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1915,17 +1988,27 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="1">
         <v>7</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1937,17 +2020,27 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="1">
         <v>9</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1959,11 +2052,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1">
         <v>44</v>
       </c>
@@ -2005,17 +2098,26 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1">
         <v>44</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="1">
+        <f>SUM(F8:F13)</f>
+        <v>39</v>
+      </c>
+      <c r="G15" s="1">
+        <f>SUM(G8:G13)</f>
+        <v>35</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H8:H13)</f>
+        <v>34</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>

--- a/presentasi/src/Copernicus Burn Down Chart.xlsx
+++ b/presentasi/src/Copernicus Burn Down Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Night Angel\Desktop\New Copernicus\presentasi\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\presentasi\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -616,6 +616,15 @@
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -632,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-27842720"/>
-        <c:axId val="-27841632"/>
+        <c:axId val="1785821696"/>
+        <c:axId val="1785826048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-27842720"/>
+        <c:axId val="1785821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27841632"/>
+        <c:crossAx val="1785826048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -686,7 +695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-27841632"/>
+        <c:axId val="1785826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-27842720"/>
+        <c:crossAx val="1785821696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,9 +1890,15 @@
       <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1913,9 +1928,15 @@
       <c r="H9" s="1">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1945,9 +1966,15 @@
       <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1977,9 +2004,15 @@
       <c r="H11" s="1">
         <v>5</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2009,9 +2042,15 @@
       <c r="H12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2041,9 +2080,15 @@
       <c r="H13" s="1">
         <v>7</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2118,9 +2163,18 @@
         <f>SUM(H8:H13)</f>
         <v>34</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="1">
+        <f>SUM(I8:I13)</f>
+        <v>34</v>
+      </c>
+      <c r="J15" s="1">
+        <f>SUM(J8:J13)</f>
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUM(K8:K13)</f>
+        <v>28</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>

--- a/presentasi/src/Copernicus Burn Down Chart.xlsx
+++ b/presentasi/src/Copernicus Burn Down Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\presentasi\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Presentasi_Bespoke\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,6 +296,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -625,6 +693,9 @@
                 <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -641,11 +712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1785821696"/>
-        <c:axId val="1785826048"/>
+        <c:axId val="193496360"/>
+        <c:axId val="193496744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1785821696"/>
+        <c:axId val="193496360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785826048"/>
+        <c:crossAx val="193496744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -695,7 +766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1785826048"/>
+        <c:axId val="193496744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785821696"/>
+        <c:crossAx val="193496360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,7 +1579,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="353637"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1768,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,7 +1970,9 @@
       <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1937,7 +2010,9 @@
       <c r="K9" s="1">
         <v>4</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1975,7 +2050,9 @@
       <c r="K10" s="1">
         <v>4</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2013,7 +2090,9 @@
       <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2051,7 +2130,9 @@
       <c r="K12" s="1">
         <v>6</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2089,7 +2170,9 @@
       <c r="K13" s="1">
         <v>6</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <v>6</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2152,30 +2235,32 @@
         <v>44</v>
       </c>
       <c r="F15" s="1">
-        <f>SUM(F8:F13)</f>
+        <f t="shared" ref="F15:K15" si="0">SUM(F8:F13)</f>
         <v>39</v>
       </c>
       <c r="G15" s="1">
-        <f>SUM(G8:G13)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="H15" s="1">
-        <f>SUM(H8:H13)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="I15" s="1">
-        <f>SUM(I8:I13)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="J15" s="1">
-        <f>SUM(J8:J13)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="K15" s="1">
-        <f>SUM(K8:K13)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <v>25</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>

--- a/presentasi/src/Copernicus Burn Down Chart.xlsx
+++ b/presentasi/src/Copernicus Burn Down Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Presentasi_Bespoke\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\presentasi\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -296,74 +296,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,7 +626,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,11 +647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193496360"/>
-        <c:axId val="193496744"/>
+        <c:axId val="1501140464"/>
+        <c:axId val="1501148080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193496360"/>
+        <c:axId val="1501140464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193496744"/>
+        <c:crossAx val="1501148080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -766,7 +701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193496744"/>
+        <c:axId val="1501148080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,7 +764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193496360"/>
+        <c:crossAx val="1501140464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1579,7 +1514,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="353637"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1839,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,9 +1906,11 @@
         <v>4</v>
       </c>
       <c r="L8" s="1">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2011,9 +1948,11 @@
         <v>4</v>
       </c>
       <c r="L9" s="1">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2051,9 +1990,11 @@
         <v>4</v>
       </c>
       <c r="L10" s="1">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2093,7 +2034,9 @@
       <c r="L11" s="1">
         <v>4</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2131,9 +2074,11 @@
         <v>6</v>
       </c>
       <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2173,7 +2118,9 @@
       <c r="L13" s="1">
         <v>6</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2259,9 +2206,13 @@
         <v>28</v>
       </c>
       <c r="L15" s="1">
-        <v>25</v>
-      </c>
-      <c r="M15" s="1"/>
+        <f>SUM(L8:L13)</f>
+        <v>15</v>
+      </c>
+      <c r="M15" s="1">
+        <f>SUM(M8:M13)</f>
+        <v>14</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>

--- a/presentasi/src/Copernicus Burn Down Chart.xlsx
+++ b/presentasi/src/Copernicus Burn Down Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\presentasi\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Presentasi_Bespoke\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,6 +296,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -631,6 +699,9 @@
                 <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -647,11 +718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1501140464"/>
-        <c:axId val="1501148080"/>
+        <c:axId val="242326768"/>
+        <c:axId val="242327152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1501140464"/>
+        <c:axId val="242326768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501148080"/>
+        <c:crossAx val="242327152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1501148080"/>
+        <c:axId val="242327152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1501140464"/>
+        <c:crossAx val="242326768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1514,7 +1585,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="353637"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1774,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1982,9 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1953,7 +2026,9 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1995,7 +2070,9 @@
       <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2037,7 +2114,9 @@
       <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2079,7 +2158,9 @@
       <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>2</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2121,7 +2202,9 @@
       <c r="M13" s="1">
         <v>6</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2213,7 +2296,10 @@
         <f>SUM(M8:M13)</f>
         <v>14</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <f>SUM(N8:N13)</f>
+        <v>8</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>

--- a/presentasi/src/Copernicus Burn Down Chart.xlsx
+++ b/presentasi/src/Copernicus Burn Down Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_Presentasi_Bespoke\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\presentasi\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -296,74 +296,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,7 +378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -505,7 +437,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="id-ID"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -635,7 +567,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="id-ID"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -702,6 +634,15 @@
                 <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -718,11 +659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242326768"/>
-        <c:axId val="242327152"/>
+        <c:axId val="249160512"/>
+        <c:axId val="249158832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242326768"/>
+        <c:axId val="249160512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,10 +702,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242327152"/>
+        <c:crossAx val="249158832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -772,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242327152"/>
+        <c:axId val="249158832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,10 +773,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242326768"/>
+        <c:crossAx val="249160512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -880,7 +821,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -926,7 +867,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1585,7 +1526,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="353637"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1845,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1985,9 +1926,15 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -2029,9 +1976,15 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -2073,9 +2026,15 @@
       <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -2117,9 +2076,15 @@
       <c r="N11" s="1">
         <v>3</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="O11" s="1">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:17" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -2161,9 +2126,15 @@
       <c r="N12" s="1">
         <v>2</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="O12" s="1">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -2205,9 +2176,15 @@
       <c r="N13" s="1">
         <v>2</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="O13" s="1">
+        <v>4</v>
+      </c>
+      <c r="P13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
@@ -2300,9 +2277,15 @@
         <f>SUM(N8:N13)</f>
         <v>8</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="O15" s="1">
+        <v>9</v>
+      </c>
+      <c r="P15" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/presentasi/src/Copernicus Burn Down Chart.xlsx
+++ b/presentasi/src/Copernicus Burn Down Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\presentasi\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\presentasi\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -378,7 +378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -437,7 +437,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -567,7 +567,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -641,7 +641,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,11 +659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="249160512"/>
-        <c:axId val="249158832"/>
+        <c:axId val="-1107116608"/>
+        <c:axId val="-1107116064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249160512"/>
+        <c:axId val="-1107116608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,10 +702,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249158832"/>
+        <c:crossAx val="-1107116064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249158832"/>
+        <c:axId val="-1107116064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,10 +773,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249160512"/>
+        <c:crossAx val="-1107116608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,7 +821,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -867,7 +867,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1786,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="Q13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
@@ -2278,13 +2278,16 @@
         <v>8</v>
       </c>
       <c r="O15" s="1">
+        <f>SUM(O8:O13)</f>
         <v>9</v>
       </c>
       <c r="P15" s="1">
+        <f>SUM(P8:P13)</f>
         <v>8</v>
       </c>
       <c r="Q15" s="1">
-        <v>2</v>
+        <f>SUM(Q8:Q13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
